--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/177.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/177.xlsx
@@ -479,13 +479,13 @@
         <v>-6.156211214521697</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.67487693846732</v>
+        <v>-14.72866011854113</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.08816628117527542</v>
+        <v>-0.04316803630826293</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.14346390836287</v>
+        <v>-11.21518354332984</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.921758815535894</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.83127758821458</v>
+        <v>-14.8797583856375</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02177521346488253</v>
+        <v>0.02935022913205777</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.85179358565489</v>
+        <v>-10.91870834547896</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.722938085319829</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.1909231472768</v>
+        <v>-15.24399934299716</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01748860275745395</v>
+        <v>0.06451615456493398</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.48431882949333</v>
+        <v>-10.55712512559617</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.572305682947525</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.69847245154199</v>
+        <v>-15.7567724760962</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1422320642334199</v>
+        <v>0.1961723519413313</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.29658829904582</v>
+        <v>-10.37253674783067</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.446095435242355</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.18159151870453</v>
+        <v>-16.24396324944251</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1346647131909023</v>
+        <v>0.1860389095418354</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.13665272753129</v>
+        <v>-10.21578260590668</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.330535575444448</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.74831803181432</v>
+        <v>-16.82045662047224</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2631132963710767</v>
+        <v>0.3300935177093473</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.989285766744823</v>
+        <v>-10.06776102997813</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.198274119755272</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.33084695445408</v>
+        <v>-17.41129915541649</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4158219167169696</v>
+        <v>0.4758894021548088</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.783985365883717</v>
+        <v>-9.862146413848821</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.039064854999633</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.0533980559861</v>
+        <v>-18.14453357606736</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6902103996738645</v>
+        <v>0.7581463591195811</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.82018558324109</v>
+        <v>-9.89968204609605</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.837596063874718</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.53354517040356</v>
+        <v>-18.6308864420318</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7357192443517043</v>
+        <v>0.7952237607673494</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.475386695601392</v>
+        <v>-9.551623175048762</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.598502225499364</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.13444259393027</v>
+        <v>-19.2393774012067</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8612482439981739</v>
+        <v>0.9207134835052937</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.426866621269955</v>
+        <v>-9.506114330370922</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.332806918709717</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.68026069940182</v>
+        <v>-19.78777469033808</v>
       </c>
       <c r="F12" t="n">
-        <v>1.016313478855577</v>
+        <v>1.083555546250683</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.934923341992098</v>
+        <v>-9.015231527623245</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.056478044620443</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.49075279912172</v>
+        <v>-20.60350371119467</v>
       </c>
       <c r="F13" t="n">
-        <v>1.198951103497656</v>
+        <v>1.271128969064092</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.43880361810773</v>
+        <v>-8.529153600018482</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.798261391876698</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.32237587562816</v>
+        <v>-21.43582067975172</v>
       </c>
       <c r="F14" t="n">
-        <v>1.516164509049837</v>
+        <v>1.596577433103719</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.977299942936886</v>
+        <v>-8.079956689518861</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.573275342487715</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.14465104790561</v>
+        <v>-22.26093688174582</v>
       </c>
       <c r="F15" t="n">
-        <v>1.627737113867026</v>
+        <v>1.71142311363134</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.532109277106833</v>
+        <v>-7.645580265836073</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.401262519325853</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.00338828359726</v>
+        <v>-23.11650578014978</v>
       </c>
       <c r="F16" t="n">
-        <v>1.904613134363849</v>
+        <v>1.991650763655644</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.957056059389699</v>
+        <v>-7.06234435884286</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.284926389311819</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.61765294832536</v>
+        <v>-23.72809961509817</v>
       </c>
       <c r="F17" t="n">
-        <v>2.094530079385928</v>
+        <v>2.182929308173262</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.869036507384775</v>
+        <v>-6.977912097816568</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.225377857062555</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.42859018634188</v>
+        <v>-24.54223137500806</v>
       </c>
       <c r="F18" t="n">
-        <v>2.506440111392313</v>
+        <v>2.604318167437057</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.468110917462597</v>
+        <v>-6.576685384929031</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.222340716941369</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.27657864140048</v>
+        <v>-25.39543056659766</v>
       </c>
       <c r="F19" t="n">
-        <v>2.77098318261223</v>
+        <v>2.870301391969564</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.167249798159732</v>
+        <v>-6.270731359820735</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.267877032807016</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.0296609931594</v>
+        <v>-26.14867002599069</v>
       </c>
       <c r="F20" t="n">
-        <v>2.992923900385171</v>
+        <v>3.092006448291353</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.049000118893262</v>
+        <v>-6.165076475888005</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.363427310862491</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.61347296147765</v>
+        <v>-26.73296640951408</v>
       </c>
       <c r="F21" t="n">
-        <v>3.312245166694869</v>
+        <v>3.407504762171268</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.722137686146729</v>
+        <v>-5.830515769070537</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.496793997519108</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.19940588285626</v>
+        <v>-27.31989434590866</v>
       </c>
       <c r="F22" t="n">
-        <v>3.522271888881839</v>
+        <v>3.609073856722483</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.569651634949146</v>
+        <v>-5.692405066393169</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.663820189343223</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.64906102395534</v>
+        <v>-27.76411618132843</v>
       </c>
       <c r="F23" t="n">
-        <v>3.705537944060321</v>
+        <v>3.790952127799741</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.372913600146528</v>
+        <v>-5.490993079476056</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.854073288753801</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.87786210841734</v>
+        <v>-27.99433123449734</v>
       </c>
       <c r="F24" t="n">
-        <v>3.840990909260818</v>
+        <v>3.927347738804844</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.209757322132938</v>
+        <v>-5.32953880083189</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.056941426299804</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.14688274720913</v>
+        <v>-28.25959438237355</v>
       </c>
       <c r="F25" t="n">
-        <v>4.155834607998647</v>
+        <v>4.243055529530226</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.918113184030648</v>
+        <v>-5.033914602665715</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.269350864336141</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.10716070038734</v>
+        <v>-28.21906061277557</v>
       </c>
       <c r="F26" t="n">
-        <v>4.312706580648209</v>
+        <v>4.408123283758708</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.919919921822806</v>
+        <v>-5.040159631121218</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.479904842870354</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.00089047822105</v>
+        <v>-28.10898053048233</v>
       </c>
       <c r="F27" t="n">
-        <v>4.268376043226124</v>
+        <v>4.357901210057847</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.741367095667346</v>
+        <v>-4.8487239789695</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.690590929635542</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.94798448243763</v>
+        <v>-28.05962254876903</v>
       </c>
       <c r="F28" t="n">
-        <v>4.251932110856917</v>
+        <v>4.332973465447201</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.660980356219148</v>
+        <v>-4.759971258005439</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.894559328625344</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.73793157564497</v>
+        <v>-27.84261762916742</v>
       </c>
       <c r="F29" t="n">
-        <v>4.241274976343751</v>
+        <v>4.320038270239575</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.54358167663739</v>
+        <v>-4.637977180126235</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.094178391672301</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.59370676754052</v>
+        <v>-27.69535540680368</v>
       </c>
       <c r="F30" t="n">
-        <v>4.147534087996992</v>
+        <v>4.219227538358284</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.497483678331673</v>
+        <v>-4.591263843586956</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.290340482911761</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.15110837767313</v>
+        <v>-27.24867221844967</v>
       </c>
       <c r="F31" t="n">
-        <v>4.004330479514193</v>
+        <v>4.072070054417283</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.593528811978575</v>
+        <v>-4.677542119313931</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.478594981235285</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.77710056239354</v>
+        <v>-26.8702130202039</v>
       </c>
       <c r="F32" t="n">
-        <v>3.920330264481678</v>
+        <v>3.984220702349301</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.674138120575082</v>
+        <v>-4.757156412894467</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.663500180448008</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.3574529794077</v>
+        <v>-26.45049997570384</v>
       </c>
       <c r="F33" t="n">
-        <v>3.787731421300677</v>
+        <v>3.850338813489811</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.621716539996812</v>
+        <v>-4.68330273256429</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.836292259148953</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.87263191287574</v>
+        <v>-25.96261531030692</v>
       </c>
       <c r="F34" t="n">
-        <v>3.660762268341617</v>
+        <v>3.718446954662262</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.447261604630811</v>
+        <v>-4.498923831644262</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.999178785782788</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.46840706263745</v>
+        <v>-25.5532059081433</v>
       </c>
       <c r="F35" t="n">
-        <v>3.420701803435728</v>
+        <v>3.479852827674646</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.45832460053207</v>
+        <v>-4.500756754042104</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.147323014643447</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.77909731802057</v>
+        <v>-24.86445913254862</v>
       </c>
       <c r="F36" t="n">
-        <v>3.208737420428183</v>
+        <v>3.258252509775591</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.730330284371771</v>
+        <v>-4.768101578070151</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.275436272584027</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.30302190978688</v>
+        <v>-24.3835395722635</v>
       </c>
       <c r="F37" t="n">
-        <v>3.076976484629052</v>
+        <v>3.128926742305021</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.728877038756339</v>
+        <v>-4.758321627847382</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.387119528907187</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.89022160118726</v>
+        <v>-23.96664137287442</v>
       </c>
       <c r="F38" t="n">
-        <v>3.004916449788192</v>
+        <v>3.05534800033452</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.870784509257808</v>
+        <v>-4.9039473123559</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.475199926435051</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.39188927812264</v>
+        <v>-23.46600480450965</v>
       </c>
       <c r="F39" t="n">
-        <v>2.976034829719344</v>
+        <v>3.027644687521428</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.745425709548281</v>
+        <v>-4.772395853402236</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.547487067474844</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.01015700416643</v>
+        <v>-23.08188973143625</v>
       </c>
       <c r="F40" t="n">
-        <v>3.059642275666607</v>
+        <v>3.121856898770489</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.735436282480044</v>
+        <v>-4.755663890370511</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.601451860166697</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.48061263112714</v>
+        <v>-22.550852835873</v>
       </c>
       <c r="F41" t="n">
-        <v>3.080485221790635</v>
+        <v>3.135996585839553</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.663638093696019</v>
+        <v>-4.683538394015442</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.643073152227484</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.80786464960505</v>
+        <v>-21.87229187188918</v>
       </c>
       <c r="F42" t="n">
-        <v>3.177394447425091</v>
+        <v>3.229868397214729</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.690136914647672</v>
+        <v>-4.71166066051947</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.680417734241536</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.1454857719336</v>
+        <v>-21.2087739638705</v>
       </c>
       <c r="F43" t="n">
-        <v>3.295198988394942</v>
+        <v>3.3484322917494</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.730644499639972</v>
+        <v>-4.757090951380259</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.712895840124101</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.8583584783117</v>
+        <v>-20.9180986561785</v>
       </c>
       <c r="F44" t="n">
-        <v>3.204652621941565</v>
+        <v>3.253565465358253</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.783995633720006</v>
+        <v>-4.80723447126407</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.753387127853996</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.37496447278949</v>
+        <v>-20.42992596011906</v>
       </c>
       <c r="F45" t="n">
-        <v>3.328531991429977</v>
+        <v>3.382393725320838</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.734100867590188</v>
+        <v>-4.753791691064144</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.79799596767859</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.0456668717144</v>
+        <v>-20.10307661967537</v>
       </c>
       <c r="F46" t="n">
-        <v>3.357465980710191</v>
+        <v>3.410018484316879</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.71719870462152</v>
+        <v>-4.724176902036159</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.855952394554682</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.50600214857845</v>
+        <v>-19.55727160650665</v>
       </c>
       <c r="F47" t="n">
-        <v>3.366735331122133</v>
+        <v>3.416800297188894</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.989898280511832</v>
+        <v>-4.992752402531329</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.928692479678663</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.03215243182786</v>
+        <v>-19.08153659814685</v>
       </c>
       <c r="F48" t="n">
-        <v>3.298498248711057</v>
+        <v>3.344975923799185</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.105896083689525</v>
+        <v>-5.107650452270316</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.014056986347086</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.64027362316931</v>
+        <v>-18.69795830948996</v>
       </c>
       <c r="F49" t="n">
-        <v>3.318110518367963</v>
+        <v>3.363619363045803</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.39212000841534</v>
+        <v>-5.39742239106624</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.120938260850112</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.12735647473901</v>
+        <v>-18.18231796206858</v>
       </c>
       <c r="F50" t="n">
-        <v>3.454139544893497</v>
+        <v>3.508524970898026</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.318357974205056</v>
+        <v>-5.306221409470775</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.241066393062407</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.46103681391221</v>
+        <v>-17.51852511569023</v>
       </c>
       <c r="F51" t="n">
-        <v>3.468907662498963</v>
+        <v>3.527246963961695</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.531461387559831</v>
+        <v>-5.518932053740299</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.383045186942427</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.06978643579006</v>
+        <v>-17.12563819971287</v>
       </c>
       <c r="F52" t="n">
-        <v>3.300828678616884</v>
+        <v>3.353957243548609</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.81445151348374</v>
+        <v>-5.816624835755467</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.539980781279489</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.67781598101163</v>
+        <v>-16.73701937446191</v>
       </c>
       <c r="F53" t="n">
-        <v>3.337408572756667</v>
+        <v>3.387159323555226</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.846252717086292</v>
+        <v>-5.845571917338523</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.712444262348901</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.47646945560872</v>
+        <v>-16.5435151384612</v>
       </c>
       <c r="F54" t="n">
-        <v>3.073677224312937</v>
+        <v>3.121202283628403</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.026442081096969</v>
+        <v>-6.020013760401681</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.903238381801549</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.18354227182794</v>
+        <v>-16.25530118370344</v>
       </c>
       <c r="F55" t="n">
-        <v>2.925498540750281</v>
+        <v>2.974463753378337</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.173062780621459</v>
+        <v>-6.159486062574588</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.103051516706181</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.8498980262094</v>
+        <v>-15.92939448906436</v>
       </c>
       <c r="F56" t="n">
-        <v>2.871741545282154</v>
+        <v>2.920811496332943</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.476895852669395</v>
+        <v>-6.47465706888346</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.320105301203537</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.30360859783553</v>
+        <v>-15.38246353785125</v>
       </c>
       <c r="F57" t="n">
-        <v>2.9037915026387</v>
+        <v>2.960900127634309</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.734918957074132</v>
+        <v>-6.731724435180752</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.541569328070912</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.09892353520799</v>
+        <v>-15.18258335036662</v>
       </c>
       <c r="F58" t="n">
-        <v>2.744484361660577</v>
+        <v>2.803609201293812</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.70971627410381</v>
+        <v>-6.708433228425321</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.771750670309807</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.75272377116423</v>
+        <v>-14.83951264670203</v>
       </c>
       <c r="F59" t="n">
-        <v>2.866268962694313</v>
+        <v>2.932961153370065</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.821223417406791</v>
+        <v>-6.817230265040064</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.006150239495899</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.69401788522193</v>
+        <v>-14.78652809710156</v>
       </c>
       <c r="F60" t="n">
-        <v>2.685228598998925</v>
+        <v>2.75186842046331</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823527662706935</v>
+        <v>-6.823763324158086</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.236758933413947</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.3506853355005</v>
+        <v>-14.44161137873629</v>
       </c>
       <c r="F61" t="n">
-        <v>2.570801872162239</v>
+        <v>2.638227231797128</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.226705128717889</v>
+        <v>-7.234704525754184</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.469594056037465</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.13903516776116</v>
+        <v>-14.23947931516288</v>
       </c>
       <c r="F62" t="n">
-        <v>2.522831674550154</v>
+        <v>2.593556294501159</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.177700639181309</v>
+        <v>-7.176077193628934</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.691056628967829</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.81963534763441</v>
+        <v>-13.92093049472084</v>
       </c>
       <c r="F63" t="n">
-        <v>2.450640716680877</v>
+        <v>2.520946382940946</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.374517227800976</v>
+        <v>-7.381037194616156</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.9078927476238</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.62927326431571</v>
+        <v>-13.73625047083546</v>
       </c>
       <c r="F64" t="n">
-        <v>2.360722780763902</v>
+        <v>2.433777830620734</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.400086495250867</v>
+        <v>-7.38971739140022</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.11055841803394</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.43845295039756</v>
+        <v>-13.54768203300608</v>
       </c>
       <c r="F65" t="n">
-        <v>2.126972805827725</v>
+        <v>2.183322077258514</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.74120644579204</v>
+        <v>-7.742358568442111</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.29670892590452</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.22185389218404</v>
+        <v>-13.33315155864155</v>
       </c>
       <c r="F66" t="n">
-        <v>2.060359168969023</v>
+        <v>2.116944101850963</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.789255197221174</v>
+        <v>-7.782643584286103</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.46917422270984</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.05154921681887</v>
+        <v>-13.16393354441224</v>
       </c>
       <c r="F67" t="n">
-        <v>2.323750117538868</v>
+        <v>2.403010918942678</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.861433062787611</v>
+        <v>-7.866251030233365</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.61554683132738</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.9995989591429</v>
+        <v>-13.11609426982858</v>
       </c>
       <c r="F68" t="n">
-        <v>2.041165853003053</v>
+        <v>2.105108660082042</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.767351774566967</v>
+        <v>-7.760792530843262</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.74384472635487</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.85886979589718</v>
+        <v>-12.97621610626758</v>
       </c>
       <c r="F69" t="n">
-        <v>2.091178449858446</v>
+        <v>2.172298358265781</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.839686747767503</v>
+        <v>-7.833088227135273</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.84015020329083</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.83212222119154</v>
+        <v>-12.95731082096412</v>
       </c>
       <c r="F70" t="n">
-        <v>2.092304387902834</v>
+        <v>2.168527775047364</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.750344873175565</v>
+        <v>-7.740460184530062</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.90766090782663</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.52819750302371</v>
+        <v>-12.64951078115514</v>
       </c>
       <c r="F71" t="n">
-        <v>2.046874097042045</v>
+        <v>2.124799483555998</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.466687039806728</v>
+        <v>-7.441981864344391</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.94405104444542</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.46090306641724</v>
+        <v>-12.58103803729291</v>
       </c>
       <c r="F72" t="n">
-        <v>2.057871631429095</v>
+        <v>2.131476558005279</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.5283648784941</v>
+        <v>-7.509917823790107</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.939723488768</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.16017287014279</v>
+        <v>-12.25122983640699</v>
       </c>
       <c r="F73" t="n">
-        <v>2.033834163411686</v>
+        <v>2.107700936044704</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.270014466518319</v>
+        <v>-7.2364981712435</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.90348818295912</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.36170268778548</v>
+        <v>-12.45338808458609</v>
       </c>
       <c r="F74" t="n">
-        <v>2.058866646445066</v>
+        <v>2.130429173777941</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.215995624993357</v>
+        <v>-7.188842188899617</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.8231182355318</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.4942753463608</v>
+        <v>-12.58639278915518</v>
       </c>
       <c r="F75" t="n">
-        <v>1.990865225485141</v>
+        <v>2.062401568212332</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.140950545104583</v>
+        <v>-7.119662460683936</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.70708228454384</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.75698549518287</v>
+        <v>-12.84115591015233</v>
       </c>
       <c r="F76" t="n">
-        <v>1.973557201128379</v>
+        <v>2.040537422466649</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.802017009137979</v>
+        <v>-6.765528761118088</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.55332882468017</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.33448697353141</v>
+        <v>-13.41493917449382</v>
       </c>
       <c r="F77" t="n">
-        <v>1.965492342577876</v>
+        <v>2.034384040131038</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.739160863194852</v>
+        <v>-6.714167657069996</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.36168531214732</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.82860357508099</v>
+        <v>-13.90528519282498</v>
       </c>
       <c r="F78" t="n">
-        <v>2.014850324291183</v>
+        <v>2.086020082538806</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.746924598779995</v>
+        <v>-6.737262479282801</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.14426004426449</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.31750944009957</v>
+        <v>-14.39348407349011</v>
       </c>
       <c r="F79" t="n">
-        <v>2.060621015025857</v>
+        <v>2.130298250749523</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.646297159138489</v>
+        <v>-6.644542790557698</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.894713895508479</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.86640423673894</v>
+        <v>-14.94141003971918</v>
       </c>
       <c r="F80" t="n">
-        <v>1.955018500304495</v>
+        <v>2.01490269350255</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.299010733958863</v>
+        <v>-6.288720183925267</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.627745833214101</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.63912504276045</v>
+        <v>-15.71288707697073</v>
       </c>
       <c r="F81" t="n">
-        <v>2.051822987516217</v>
+        <v>2.115346840904272</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.237843495082319</v>
+        <v>-6.233326650601923</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.33969781018066</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.36950534139182</v>
+        <v>-16.44074056115365</v>
       </c>
       <c r="F82" t="n">
-        <v>2.026502473820319</v>
+        <v>2.083794391055712</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.138001593611316</v>
+        <v>-6.131913672789914</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.038991741113247</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.24568152446865</v>
+        <v>-17.31771537470383</v>
       </c>
       <c r="F83" t="n">
-        <v>2.006261773627011</v>
+        <v>2.066041228402332</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.84456381001971</v>
+        <v>-5.8349278751282</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.734753061415232</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.30031888758106</v>
+        <v>-18.37063764614397</v>
       </c>
       <c r="F84" t="n">
-        <v>2.0222605676996</v>
+        <v>2.074813071306288</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.729338452709679</v>
+        <v>-5.727413884191945</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.425566552842909</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.10019312969631</v>
+        <v>-19.16922884258073</v>
       </c>
       <c r="F85" t="n">
-        <v>2.046900281647728</v>
+        <v>2.102961522415999</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.588308166498606</v>
+        <v>-5.59342725690972</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.13073693640248</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.24549468998767</v>
+        <v>-20.32067069290486</v>
       </c>
       <c r="F86" t="n">
-        <v>2.035012470667441</v>
+        <v>2.090288173265209</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252163291037289</v>
+        <v>-5.25315830605326</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.848986365936721</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.31111649518428</v>
+        <v>-21.38694711324355</v>
       </c>
       <c r="F87" t="n">
-        <v>1.868164163252484</v>
+        <v>1.90333008868536</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.895686069262771</v>
+        <v>-4.887725949135001</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.597210996473716</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.65411182838569</v>
+        <v>-22.72790004720166</v>
       </c>
       <c r="F88" t="n">
-        <v>1.960281606046869</v>
+        <v>1.999663252994781</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661778986692493</v>
+        <v>-4.661975371235119</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.382144967486687</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.03902871528632</v>
+        <v>-24.10413673731822</v>
       </c>
       <c r="F89" t="n">
-        <v>1.823179010688313</v>
+        <v>1.869944716438959</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.279261174565782</v>
+        <v>-4.27491453002233</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.208730205228902</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.50904557065816</v>
+        <v>-25.57217665496097</v>
       </c>
       <c r="F90" t="n">
-        <v>1.612000165851272</v>
+        <v>1.652141166364004</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.161888679589708</v>
+        <v>-4.165593801293917</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.093462396858012</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.15291511546529</v>
+        <v>-27.21497263093507</v>
       </c>
       <c r="F91" t="n">
-        <v>1.408964733381784</v>
+        <v>1.445073304619265</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.063473839128454</v>
+        <v>-4.060868470862951</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.031659570672062</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.75157693855993</v>
+        <v>-28.80280711957961</v>
       </c>
       <c r="F92" t="n">
-        <v>1.287926393610026</v>
+        <v>1.320198920114881</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.794741230999184</v>
+        <v>-3.789726879010803</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.037765098595711</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.60255362202032</v>
+        <v>-30.64929314316528</v>
       </c>
       <c r="F93" t="n">
-        <v>1.149841875538341</v>
+        <v>1.180517141096506</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.787815402795911</v>
+        <v>-3.77764268348789</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.103038327618833</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.68297291278196</v>
+        <v>-32.72325792862596</v>
       </c>
       <c r="F94" t="n">
-        <v>1.037143332676764</v>
+        <v>1.065553629843309</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.783796065823501</v>
+        <v>-3.76922433276066</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.229304724890609</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.71641702094749</v>
+        <v>-34.75050937754735</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6326304517759532</v>
+        <v>0.6617346409931103</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.769931317114113</v>
+        <v>-3.753487384744906</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.416931200301803</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.68898192089899</v>
+        <v>-36.71823012544741</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4065525663050275</v>
+        <v>0.4413911841668606</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.98152911564209</v>
+        <v>-3.968790304977091</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.648331284436425</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.77944300794023</v>
+        <v>-38.80406962958552</v>
       </c>
       <c r="F97" t="n">
-        <v>0.02698052231770535</v>
+        <v>0.05628109607748829</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.982092084664284</v>
+        <v>-3.960280308129969</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.937173175585723</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.00717689027697</v>
+        <v>-41.01940510113114</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1848529376614224</v>
+        <v>-0.1501321505251649</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.18253524117111</v>
+        <v>-4.160068849494708</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.253656465536443</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.3880252543477</v>
+        <v>-43.39568425151011</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.1054612132291956</v>
+        <v>-0.07115937978387327</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.511073488681385</v>
+        <v>-4.489562835112428</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.62395471468747</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79640673129457</v>
+        <v>-45.79605323911785</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3690616386445082</v>
+        <v>-0.347328415927243</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.696892542914003</v>
+        <v>-4.669176137798068</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.004170651626783</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19523082716699</v>
+        <v>-48.19444528899649</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3088370455725683</v>
+        <v>-0.2779523031689365</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.977421315903667</v>
+        <v>-4.941561498420179</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.449827859888325</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.41445471265661</v>
+        <v>-50.4060101773237</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4545674685038212</v>
+        <v>-0.4259738790974915</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.334134199129336</v>
+        <v>-5.302254441709732</v>
       </c>
     </row>
   </sheetData>
